--- a/Analyses/main study/outputs/01_dataPreperation/final/questionnaire_final.xlsx
+++ b/Analyses/main study/outputs/01_dataPreperation/final/questionnaire_final.xlsx
@@ -215,10 +215,10 @@
     <t>typeChange</t>
   </si>
   <si>
-    <t>CAMpre</t>
-  </si>
-  <si>
-    <t>CAMpost</t>
+    <t>participantCAMpre</t>
+  </si>
+  <si>
+    <t>participantCAMpost</t>
   </si>
   <si>
     <t>1</t>
@@ -2902,1300 +2902,1300 @@
     <t>A</t>
   </si>
   <si>
-    <t>67d88f73-7672-4027-98f5-6463b4edc1f7</t>
-  </si>
-  <si>
-    <t>93054cc2-22c5-4ad6-8427-e87a59330550</t>
-  </si>
-  <si>
-    <t>ff10f939-c494-42a7-9dda-db09c3f1cbfb</t>
-  </si>
-  <si>
-    <t>e2432d72-71f3-4c9c-816b-344d659a8a98</t>
-  </si>
-  <si>
-    <t>2372728a-1554-4b74-bdb8-fc1b458cd84b</t>
-  </si>
-  <si>
-    <t>96ced3a1-c238-42a7-a384-972ecb827ef7</t>
-  </si>
-  <si>
-    <t>4dbc03aa-ef88-4c3c-a65b-111ea22e5a77</t>
-  </si>
-  <si>
-    <t>d5c8fbf0-86c5-4ad7-930b-2337a0dde821</t>
-  </si>
-  <si>
-    <t>b6b4e386-7c68-410c-8f1e-d26fe6de228b</t>
-  </si>
-  <si>
-    <t>686eb427-5afa-40f8-a326-bf7f888c817c</t>
-  </si>
-  <si>
-    <t>7359f40a-d1bf-4488-aff7-996c937c178c</t>
-  </si>
-  <si>
-    <t>e9ec8b7a-19d3-49ae-96c8-2f4611046a24</t>
-  </si>
-  <si>
-    <t>b2a0210a-04c0-4c9a-94f7-ff067e50f322</t>
-  </si>
-  <si>
-    <t>a7817fa8-57ef-4d06-b211-3b538008214e</t>
-  </si>
-  <si>
-    <t>f1dff0a4-f2df-4e1d-a1e2-af0998b22827</t>
-  </si>
-  <si>
-    <t>25ed7243-8757-478e-ac85-446b6a3a74f1</t>
-  </si>
-  <si>
-    <t>f16484f1-e7fa-4e5a-8ddc-c7a5a1a98d73</t>
-  </si>
-  <si>
-    <t>3c31933e-4d4b-4470-b22e-453216b172bf</t>
-  </si>
-  <si>
-    <t>c2ef1ea2-cd4b-4254-8b5d-05ac028a4b75</t>
-  </si>
-  <si>
-    <t>1391b737-31b0-4801-b000-c8468ac78fbf</t>
-  </si>
-  <si>
-    <t>b140d5c7-8ad3-4697-90ba-771346add31f</t>
-  </si>
-  <si>
-    <t>9ff6b7dc-5993-4342-90fb-734d4abc7388</t>
-  </si>
-  <si>
-    <t>e5fe832e-4027-46f0-8dac-3ae12d6be880</t>
-  </si>
-  <si>
-    <t>b04a7178-0386-4446-9aa7-a51271502dcc</t>
-  </si>
-  <si>
-    <t>e379608f-689d-44e3-8b5d-b663d465bea3</t>
-  </si>
-  <si>
-    <t>eb73ea52-bc84-49d7-9587-ee803cef8ac3</t>
-  </si>
-  <si>
-    <t>1c6a989e-87a9-42df-9875-39737313acc2</t>
-  </si>
-  <si>
-    <t>d0c57c19-3826-49cd-8f98-2afe80cc78db</t>
-  </si>
-  <si>
-    <t>f9a7f254-8f20-40dd-b389-f3d7cd26b025</t>
-  </si>
-  <si>
-    <t>a57e79ad-4efa-4352-8c71-9ea307c4f84b</t>
-  </si>
-  <si>
-    <t>dd309540-8638-4343-a094-18add58b76ad</t>
-  </si>
-  <si>
-    <t>0ba6a0cd-db01-4ac6-b4ff-4e8ef6ffd3d9</t>
-  </si>
-  <si>
-    <t>ed307214-1716-4638-9a91-1c1485e3d66c</t>
-  </si>
-  <si>
-    <t>eeb0c550-f62e-4768-b2b4-c4905c715514</t>
-  </si>
-  <si>
-    <t>e24d6314-a5a3-4f0c-aefb-77ee7b5a9d31</t>
-  </si>
-  <si>
-    <t>a5815276-cec9-47e5-8aab-f048bf3626de</t>
-  </si>
-  <si>
-    <t>b6c60582-aefd-4543-a47d-261456a34029</t>
-  </si>
-  <si>
-    <t>07f908bc-e189-49a5-a28c-633098ffef20</t>
-  </si>
-  <si>
-    <t>968e5394-940e-47c5-85eb-25784bc8a7fc</t>
-  </si>
-  <si>
-    <t>5e068e94-2f0f-40b2-817b-f290c3adab08</t>
-  </si>
-  <si>
-    <t>b844a791-6edc-4958-a1df-693cd8c80cb5</t>
-  </si>
-  <si>
-    <t>6b1d49ac-0ea1-4c20-8be3-c81f113896b8</t>
-  </si>
-  <si>
-    <t>5951fd74-1350-40de-bdf2-a9a2e7347a72</t>
-  </si>
-  <si>
-    <t>ef91c661-a8e0-442d-ade8-7f7274075aff</t>
-  </si>
-  <si>
-    <t>2ff84679-c0d5-4155-bd6c-1dfe8df3c930</t>
-  </si>
-  <si>
-    <t>1a3645d9-a47a-44b6-9f11-b3488a860136</t>
-  </si>
-  <si>
-    <t>b856e644-0f7b-4e4b-ad22-253cdce86b22</t>
-  </si>
-  <si>
-    <t>c331afea-cac2-49f5-99c2-14e7898f5c2d</t>
-  </si>
-  <si>
-    <t>bc547320-d640-4e59-aa7c-1ef59189b42a</t>
-  </si>
-  <si>
-    <t>e94223c0-8019-4d2f-a13f-f782c523b3a4</t>
-  </si>
-  <si>
-    <t>10a31fa7-bc6f-42c9-b263-3186440e27c9</t>
-  </si>
-  <si>
-    <t>c4c371ba-4b17-4157-bc86-41b32be95de3</t>
-  </si>
-  <si>
-    <t>4169c386-f185-4153-9941-f40fdba582a0</t>
-  </si>
-  <si>
-    <t>08615304-8525-4909-a82d-1b42e072c9de</t>
-  </si>
-  <si>
-    <t>c9374aec-3195-4b35-9cf6-57db04cde7cd</t>
-  </si>
-  <si>
-    <t>a6057252-da92-4aa3-b96f-5277bef8a41b</t>
-  </si>
-  <si>
-    <t>bbc9d5c3-9c85-4042-9e9f-a54e62faca9a</t>
-  </si>
-  <si>
-    <t>f5da2fd6-5ac6-464e-8c7e-e81e27555ed1</t>
-  </si>
-  <si>
-    <t>cd3dc9a8-9cfa-412e-811a-f020de2002e6</t>
-  </si>
-  <si>
-    <t>ff21ff6d-4264-47c0-87cd-3972e1005209</t>
-  </si>
-  <si>
-    <t>53672d4e-598a-4be2-af49-8cac5957c423</t>
-  </si>
-  <si>
-    <t>a411e968-d2c2-450c-8cbf-f5c13113011e</t>
-  </si>
-  <si>
-    <t>3204b5bc-9529-4b04-ab61-f06f69e18811</t>
-  </si>
-  <si>
-    <t>0ea5987b-6841-4e72-a7b5-ce9d4f9d9622</t>
-  </si>
-  <si>
-    <t>e4807e2b-6030-408f-9e22-b6107aa91cab</t>
-  </si>
-  <si>
-    <t>8b7ac4b2-723d-421b-81d0-e045e5cf23f9</t>
-  </si>
-  <si>
-    <t>a8c4e167-3040-4691-97f7-335bd7ea010b</t>
-  </si>
-  <si>
-    <t>b1a53c70-2c04-4eaf-b06d-00f4ddf8a3d4</t>
-  </si>
-  <si>
-    <t>e3458515-c043-4d7e-a116-b870590110cb</t>
-  </si>
-  <si>
-    <t>31ddc195-56b5-49b8-802e-398c11bb1310</t>
-  </si>
-  <si>
-    <t>2c7f98ed-e441-43e9-bbe2-811fd32476d7</t>
-  </si>
-  <si>
-    <t>eab6a6b3-901d-4a71-b6ee-460d1cfa6b57</t>
-  </si>
-  <si>
-    <t>0a3bbf7f-a4dc-449a-8eb9-0a491ad8f00e</t>
-  </si>
-  <si>
-    <t>894ba5a3-b1d6-48df-88a2-7c1f0dfb624a</t>
-  </si>
-  <si>
-    <t>d5402f33-f4c7-41ea-a13e-367f92b48067</t>
-  </si>
-  <si>
-    <t>d3cafa8c-ff3f-495f-b88f-e3ff0aad8276</t>
-  </si>
-  <si>
-    <t>4f7c2cc1-fb4e-4e9b-b4c0-f068b52d13a6</t>
-  </si>
-  <si>
-    <t>c6d00bc9-3f5b-48a4-bf29-27e0aef92c07</t>
-  </si>
-  <si>
-    <t>40b95e1e-7d4b-4236-8d6b-452d90b8ed25</t>
-  </si>
-  <si>
-    <t>425c136c-828a-4fff-8d3d-a11b7ce94fc2</t>
-  </si>
-  <si>
-    <t>bb8ce1f5-8c89-46ae-b5d0-fd388f3781f7</t>
-  </si>
-  <si>
-    <t>af1e2d25-a53d-4225-913d-4034a685b645</t>
-  </si>
-  <si>
-    <t>9064db3d-2a5d-4489-b2ca-48beb38b0b58</t>
-  </si>
-  <si>
-    <t>20fb814b-944b-4151-9989-98e747026072</t>
-  </si>
-  <si>
-    <t>42da5102-bfd6-4aeb-8a16-e261f6946b20</t>
-  </si>
-  <si>
-    <t>2e4cfec5-cd3c-4dfa-bd62-ba6dc7a10fce</t>
-  </si>
-  <si>
-    <t>c68b73f7-3386-4bdf-8018-ac4910e48b99</t>
-  </si>
-  <si>
-    <t>78017486-2a19-48bc-9839-e5528e902f07</t>
-  </si>
-  <si>
-    <t>337ba88b-57a8-416c-b024-56c7ec77973a</t>
-  </si>
-  <si>
-    <t>a1ac7e16-9902-45b8-b259-68117ec96602</t>
-  </si>
-  <si>
-    <t>6a8e6149-1a81-46d9-8a50-27a580840f1a</t>
-  </si>
-  <si>
-    <t>171b6d5d-2857-47e5-8ba1-5209ac3dfa29</t>
-  </si>
-  <si>
-    <t>3c77358a-3e82-4a63-9771-19a52a7634e6</t>
-  </si>
-  <si>
-    <t>1220bf3e-0f5f-40cc-81d8-1619b2aa845c</t>
-  </si>
-  <si>
-    <t>1a40350e-c384-4d35-8416-bb73b09dfc02</t>
-  </si>
-  <si>
-    <t>04afdc38-29d5-48aa-9138-0f7735d9dc05</t>
-  </si>
-  <si>
-    <t>5fe08e2c-6435-4fc8-8774-5a55e249ff3e</t>
-  </si>
-  <si>
-    <t>accadebf-a880-4c9a-bd21-500296454b8e</t>
-  </si>
-  <si>
-    <t>d05b954a-7230-4783-8410-5cf1b6ce0140</t>
-  </si>
-  <si>
-    <t>580b7472-d6e2-4dfc-8c2e-12ed71e4d98d</t>
-  </si>
-  <si>
-    <t>069068ad-d01f-4299-85c7-3d7b2e7f25a2</t>
-  </si>
-  <si>
-    <t>0624f5f3-a5f1-4d0e-a693-ea4d50922280</t>
-  </si>
-  <si>
-    <t>e5d43533-cb2b-465e-87a1-341bee79f02d</t>
-  </si>
-  <si>
-    <t>8f1ad48b-c79e-4006-8436-a674fcdcd84a</t>
-  </si>
-  <si>
-    <t>e5b6c7bc-357e-4763-887a-8de111769bd2</t>
-  </si>
-  <si>
-    <t>cf7c027c-f702-4d0d-afbf-410dac63c7de</t>
-  </si>
-  <si>
-    <t>8f180c31-c24e-4bf4-9d6a-52c894d065c2</t>
-  </si>
-  <si>
-    <t>0b419dbc-a5af-43ce-abb5-c427ea0226f5</t>
-  </si>
-  <si>
-    <t>2563766f-b761-4eac-8a41-65ea874e387e</t>
-  </si>
-  <si>
-    <t>3ddbee71-22a5-433e-820d-3d5d6065097f</t>
-  </si>
-  <si>
-    <t>1dd6d655-5f7d-4932-afab-ede3768dba56</t>
-  </si>
-  <si>
-    <t>52e02f6a-a4df-48e5-b1e5-143d03104b4f</t>
-  </si>
-  <si>
-    <t>f1abba8a-dd0d-4152-bf0c-0f737cab8816</t>
-  </si>
-  <si>
-    <t>afbbf940-c6eb-446f-b1b3-3ad0f2c1c88c</t>
-  </si>
-  <si>
-    <t>e84db07a-cce0-42ba-9e75-02235905500d</t>
-  </si>
-  <si>
-    <t>85f22ceb-b65d-48ed-94f4-3cf3335f6159</t>
-  </si>
-  <si>
-    <t>7af616c4-c1f5-4ae6-97c0-8d6657d47520</t>
-  </si>
-  <si>
-    <t>51c77f8b-a11d-4f67-b4db-85ac9b6e4bbd</t>
-  </si>
-  <si>
-    <t>f50a29e8-1ee2-4039-9c43-4e8d1fb6a4c2</t>
-  </si>
-  <si>
-    <t>523189e2-a0ec-4512-8d92-f5b3b20a2558</t>
-  </si>
-  <si>
-    <t>2f41fa8c-38e4-4e67-a28e-fac1c09c5f06</t>
-  </si>
-  <si>
-    <t>01af9189-440e-493a-a00e-5c835c1d5d3a</t>
-  </si>
-  <si>
-    <t>bdf783f8-454a-489e-8c5a-e25a04b0d4a5</t>
-  </si>
-  <si>
-    <t>4ba69c8a-f4b7-44de-a149-b3f0b9f47555</t>
-  </si>
-  <si>
-    <t>4931bb49-5d85-439c-956b-ec0757ba39e3</t>
-  </si>
-  <si>
-    <t>21a4de17-cb64-4f84-9def-81bf57678337</t>
-  </si>
-  <si>
-    <t>599b33b5-db21-4603-b257-cde81ca64bd4</t>
-  </si>
-  <si>
-    <t>5c561af6-132d-4036-9472-e4b65bd84862</t>
-  </si>
-  <si>
-    <t>bc7ee580-2905-4eac-a9e8-82033b1acb64</t>
-  </si>
-  <si>
-    <t>b4f8a0b0-7f2b-430a-82dc-44fa383088e4</t>
-  </si>
-  <si>
-    <t>1bc8ec17-8a23-439b-a204-f49e2f08567b</t>
-  </si>
-  <si>
-    <t>f1eb738f-32b1-4ab6-bbc0-7dd73abd5cac</t>
-  </si>
-  <si>
-    <t>0126c28c-b57e-49ac-bbb9-9d24f731fd3a</t>
-  </si>
-  <si>
-    <t>9535d531-07fe-42f4-98a2-26ed3d062421</t>
-  </si>
-  <si>
-    <t>86939696-29e5-40ca-aa78-b127aa88065e</t>
-  </si>
-  <si>
-    <t>f1579ce6-f39b-415c-be8d-bd7e32299e72</t>
-  </si>
-  <si>
-    <t>d6e9c897-2c72-44a5-a921-f1c8b0f00029</t>
-  </si>
-  <si>
-    <t>463d4af0-cc56-4d96-a7a7-fb6d91615410</t>
-  </si>
-  <si>
-    <t>00aff601-0944-4508-8541-5c02824bd709</t>
-  </si>
-  <si>
-    <t>19038cb0-6ec8-4aaf-bb0c-0cd2de1b338e</t>
-  </si>
-  <si>
-    <t>3be01753-cb70-48c3-9b40-60ea9962b9dd</t>
-  </si>
-  <si>
-    <t>2080b905-a1e1-4367-a450-fdbbd8cb5e80</t>
-  </si>
-  <si>
-    <t>f349e60f-53a2-4f52-a7d2-7e3f88698397</t>
-  </si>
-  <si>
-    <t>d6fdcfb1-82c6-43bd-904f-12601ed827e4</t>
-  </si>
-  <si>
-    <t>9ce5ea53-8f39-4144-bf3a-153e6745bb2b</t>
-  </si>
-  <si>
-    <t>ab3f83ee-89b4-4de8-b52a-64a2b564941a</t>
-  </si>
-  <si>
-    <t>a1889cf1-8b05-4cb0-9685-939d7694f180</t>
-  </si>
-  <si>
-    <t>2fd11ec5-e468-4f9f-b88a-ad0931454ae0</t>
-  </si>
-  <si>
-    <t>57801af2-ab46-4f3f-a63f-1971b27a2461</t>
-  </si>
-  <si>
-    <t>9e146c5b-be3a-4022-91a3-b6a14fec5070</t>
-  </si>
-  <si>
-    <t>55958571-2cfc-4378-906f-c39d3c7565a7</t>
-  </si>
-  <si>
-    <t>a9d51335-b408-4695-969a-3e68f1703a84</t>
-  </si>
-  <si>
-    <t>9da95065-eedc-402b-b265-f842be19c60e</t>
-  </si>
-  <si>
-    <t>bc4474cb-256e-4cba-aba6-64b0c0bf82fb</t>
-  </si>
-  <si>
-    <t>5640021e-b0a4-41a8-a711-4446e7b2be48</t>
-  </si>
-  <si>
-    <t>059d84bf-9cf9-4e08-926f-12c4b5b16504</t>
-  </si>
-  <si>
-    <t>24d45a10-a693-4d46-809b-06bf36940f04</t>
-  </si>
-  <si>
-    <t>d011cd6c-e316-4616-964b-b83dd86f7da1</t>
-  </si>
-  <si>
-    <t>58150d17-1b9b-47b1-8f30-a71a23174f82</t>
-  </si>
-  <si>
-    <t>b2bbe07a-0a68-4f07-9cf2-ee89466f97e4</t>
-  </si>
-  <si>
-    <t>52f6720c-2c36-473a-8021-7793ba931781</t>
-  </si>
-  <si>
-    <t>b82eab01-a0f5-4443-9b8d-69cf7446fe7c</t>
-  </si>
-  <si>
-    <t>c5f0504f-e22f-44df-90e4-e6cdc0d575bf</t>
-  </si>
-  <si>
-    <t>247dddee-6121-4793-b5b6-8027a162e12f</t>
-  </si>
-  <si>
-    <t>b75cface-2dec-405d-9ebd-963b8660a202</t>
-  </si>
-  <si>
-    <t>877d1da8-cce8-40cb-a4a1-7f022f82dbe2</t>
-  </si>
-  <si>
-    <t>710e3852-acd8-4669-8426-6ee802b39388</t>
-  </si>
-  <si>
-    <t>e76181b1-99ea-4065-a12d-f96b507344d7</t>
-  </si>
-  <si>
-    <t>be9754cd-104b-403a-90e3-84196b613523</t>
-  </si>
-  <si>
-    <t>fc0011ab-6cf3-4013-a8f7-c6f33788c402</t>
-  </si>
-  <si>
-    <t>57352506-7df0-4fb9-b79c-3df0e14a098c</t>
-  </si>
-  <si>
-    <t>c664c7ce-ddf7-4991-aa66-7de539215437</t>
-  </si>
-  <si>
-    <t>24f2177c-8bdb-4fc6-8d86-04121ff9fdd1</t>
-  </si>
-  <si>
-    <t>85186556-fc5a-403d-a571-f117c3b23223</t>
-  </si>
-  <si>
-    <t>5af5051a-ad7c-4b39-8dbc-0a35184a8e94</t>
-  </si>
-  <si>
-    <t>c4dfdb1f-726a-4cfd-8a37-3d6bdfdea7cb</t>
-  </si>
-  <si>
-    <t>8cc2c4e8-f161-4bf9-971a-7cc8dd01668d</t>
-  </si>
-  <si>
-    <t>f797db68-57df-49f1-a5aa-b9d816db8774</t>
-  </si>
-  <si>
-    <t>8b48bb85-8408-4949-93e5-c542081fdecc</t>
-  </si>
-  <si>
-    <t>a041fc15-059c-4092-9f14-2a3397bc0001</t>
-  </si>
-  <si>
-    <t>02d81a23-e7af-4677-986d-fbe04685eac5</t>
-  </si>
-  <si>
-    <t>6252b4a8-7589-4c89-98ea-6456d2201d3f</t>
-  </si>
-  <si>
-    <t>7cc633b0-81ed-4a11-be86-0124fb1b6145</t>
-  </si>
-  <si>
-    <t>78195f5a-759b-41ad-b5d7-2a4e588ede72</t>
-  </si>
-  <si>
-    <t>73a99249-5a0f-41a5-a775-f432d3e0ab51</t>
-  </si>
-  <si>
-    <t>9285ca59-21c4-44c7-9c61-8c307cbd678b</t>
-  </si>
-  <si>
-    <t>ba4921ab-76fd-49a9-bb3f-9af23e9c9f58</t>
-  </si>
-  <si>
-    <t>146111f0-5ba3-4fcb-96a9-69f143a44752</t>
-  </si>
-  <si>
-    <t>2cbf9b6e-fef6-4cdd-ac95-f82b9c07d83d</t>
-  </si>
-  <si>
-    <t>9b01fce0-6c53-46c1-b469-a93de41593d5</t>
-  </si>
-  <si>
-    <t>ad701192-eb60-41df-9aa7-7bf39eb9492a</t>
-  </si>
-  <si>
-    <t>8a298f41-4c3d-4eda-90c2-2d42b16f92cb</t>
-  </si>
-  <si>
-    <t>859d0376-a57a-471d-8cd8-3378d2fcf678</t>
-  </si>
-  <si>
-    <t>e9412065-4b1a-445d-9da3-9569326fc9aa</t>
-  </si>
-  <si>
-    <t>42098a98-6d62-48e9-abb5-c3c9beec21b1</t>
-  </si>
-  <si>
-    <t>21746ff6-4488-4309-a119-562cf2e4644c</t>
-  </si>
-  <si>
-    <t>56f6f479-9cfb-4966-bc61-53df44f92d10</t>
-  </si>
-  <si>
-    <t>dc27d1fa-9533-41d4-9a20-49fae4891d8f</t>
-  </si>
-  <si>
-    <t>d2ab0d7c-b316-4c79-8cbd-8de0f57fb9f9</t>
-  </si>
-  <si>
-    <t>c70ef1e0-b8a7-4eef-ae74-9da039a0981e</t>
-  </si>
-  <si>
-    <t>3c44c31b-dc69-4ab7-81c6-5abc1ff44790</t>
-  </si>
-  <si>
-    <t>2931920e-a0e5-4b84-bed7-82bdb4de6121</t>
-  </si>
-  <si>
-    <t>595ab574-2c03-4dbb-ac6d-150a3f4c4925</t>
-  </si>
-  <si>
-    <t>dbb7dc07-546f-451b-9ba5-1f84e4d06400</t>
-  </si>
-  <si>
-    <t>b11de58e-3825-4b4e-997e-869b04afcc83</t>
-  </si>
-  <si>
-    <t>4399493e-e28f-4b22-a151-7e960a888646</t>
-  </si>
-  <si>
-    <t>8c7fb615-f9a1-4e17-a3b6-8cef379f6f18</t>
-  </si>
-  <si>
-    <t>6f798354-5803-4950-8a45-e628dbb418ca</t>
-  </si>
-  <si>
-    <t>91382d5b-ad18-4b01-bd87-7a6f8c5a35d1</t>
-  </si>
-  <si>
-    <t>9b634d84-435e-43bf-a18e-25fa7c0f889b</t>
-  </si>
-  <si>
-    <t>63939809-3006-4726-b7d6-f2693060e05d</t>
-  </si>
-  <si>
-    <t>036d5fbb-1c86-492c-9267-10c121396418</t>
-  </si>
-  <si>
-    <t>62fb7a33-ee9e-4b69-b55a-7c61906101f3</t>
-  </si>
-  <si>
-    <t>f27832fb-ee05-4a6d-992e-84af62e42c91</t>
-  </si>
-  <si>
-    <t>39a893e3-47fb-4021-9dbc-a58137d98baa</t>
-  </si>
-  <si>
-    <t>dd5e233d-30ca-43f8-91e3-57347fe3cd09</t>
-  </si>
-  <si>
-    <t>d45664a2-fc8f-4623-bf4e-f6c82a573f61</t>
-  </si>
-  <si>
-    <t>6fc79693-7f8a-4b8e-9d16-54481d6614ff</t>
-  </si>
-  <si>
-    <t>6c2f1cf1-e16a-4d1c-893b-14600b3b6847</t>
-  </si>
-  <si>
-    <t>4ece5897-1e1f-4fe7-9686-91cfeba1be89</t>
-  </si>
-  <si>
-    <t>e236ce4a-8bd5-4236-915c-f6c51fc09a85</t>
-  </si>
-  <si>
-    <t>17a40280-d565-4ec7-b02a-565a0e25cb0d</t>
-  </si>
-  <si>
-    <t>f064826c-748c-4f53-9b49-b878ee1e8762</t>
-  </si>
-  <si>
-    <t>2be0e67b-ec5d-4448-8cb7-9325c223eb78</t>
-  </si>
-  <si>
-    <t>1a106295-c52d-448c-87ee-900913fa3118</t>
-  </si>
-  <si>
-    <t>f7c0ffb8-8e24-4f0e-91e6-bab4aacc25a5</t>
-  </si>
-  <si>
-    <t>0eced62b-80f1-4103-8d41-4cfc1429b741</t>
-  </si>
-  <si>
-    <t>c8a06638-b13e-4d76-891e-dedf2adc088b</t>
-  </si>
-  <si>
-    <t>91598ac7-8fd5-4d3d-a9c2-6d204d51596b</t>
-  </si>
-  <si>
-    <t>f5a16aa2-0177-4e56-9bcf-3baa1acba62e</t>
-  </si>
-  <si>
-    <t>30e20ee6-baf8-4bec-a8af-73a067bc6a28</t>
-  </si>
-  <si>
-    <t>cef58ca6-37aa-46f9-bdc1-e4029eb118f6</t>
-  </si>
-  <si>
-    <t>da40f057-a03b-42e0-8690-6fba7dd1a60f</t>
-  </si>
-  <si>
-    <t>eeee6ecf-ccfa-4d7f-9762-35373dd6c67a</t>
-  </si>
-  <si>
-    <t>85d26b27-16ea-4139-b2b6-d3b6310ee85b</t>
-  </si>
-  <si>
-    <t>256fa744-589c-441c-9270-0bfb8d4b4f9d</t>
-  </si>
-  <si>
-    <t>b4442081-ddc8-4bcb-9861-d6a417feff71</t>
-  </si>
-  <si>
-    <t>2f7a18af-ee68-4200-a9bd-768a6ea3b993</t>
-  </si>
-  <si>
-    <t>eb04f93e-2db7-43af-a5cc-f4fd53261e52</t>
-  </si>
-  <si>
-    <t>7cbe81ff-cffb-4a0d-ba55-929fb844e5f8</t>
-  </si>
-  <si>
-    <t>5db89e68-ae18-43c5-9907-d8ef139fbde7</t>
-  </si>
-  <si>
-    <t>e1add64c-9388-4430-aea3-50af1c5b2466</t>
-  </si>
-  <si>
-    <t>44ae2972-4a4f-4b25-9d6d-dff38f4e5425</t>
-  </si>
-  <si>
-    <t>a8232c86-7227-45b8-aed4-bad62adce95a</t>
-  </si>
-  <si>
-    <t>48d7cb36-6296-419e-bcaf-7f6c9490c9f6</t>
-  </si>
-  <si>
-    <t>ea9a7aef-d2d9-4c7d-933d-fcfb10e32536</t>
-  </si>
-  <si>
-    <t>7d287bdd-b024-4edf-805d-e6bdccc8bcd0</t>
-  </si>
-  <si>
-    <t>f9dd4433-7a2d-4e79-9de3-294f4c0f00ac</t>
-  </si>
-  <si>
-    <t>463f299d-2c26-468b-9bd1-3be9e763a087</t>
-  </si>
-  <si>
-    <t>e0fb180d-d3c1-4c13-9b0e-aff3a6bb9e01</t>
-  </si>
-  <si>
-    <t>4e342ef6-788f-47a0-ad8a-dad334a81b5f</t>
-  </si>
-  <si>
-    <t>2ed39bbe-bca0-41f2-be1d-4ccbecff78c3</t>
-  </si>
-  <si>
-    <t>41ccf4ef-c536-4f5e-aa8e-292032f35d62</t>
-  </si>
-  <si>
-    <t>8266b0f2-38e4-409e-a2e8-2bfd10924aec</t>
-  </si>
-  <si>
-    <t>5ba60b17-751d-450e-9566-f2955d2433cd</t>
-  </si>
-  <si>
-    <t>caa32b83-d911-4d59-ab0a-dba5407dc9f1</t>
-  </si>
-  <si>
-    <t>8707353a-d1a2-4197-9a50-7e161f4f127d</t>
-  </si>
-  <si>
-    <t>777642fe-649e-4f5b-b4c5-4317fe5f277b</t>
-  </si>
-  <si>
-    <t>27a66727-7f19-4a5c-a827-4e30a0a93981</t>
-  </si>
-  <si>
-    <t>a90498e2-9108-4c54-acf0-5c44fac4cc13</t>
-  </si>
-  <si>
-    <t>353a2754-a2cc-4dcf-a1cd-725ed219b0eb</t>
-  </si>
-  <si>
-    <t>d5ab7d2c-c598-467a-850f-2f25a6c55fba</t>
-  </si>
-  <si>
-    <t>2445685a-c6da-4fb3-be12-203bf7f7a9e5</t>
-  </si>
-  <si>
-    <t>1a84518d-a0b5-4bd5-9453-f7b96b68f7a7</t>
-  </si>
-  <si>
-    <t>091de011-c6dd-4ca7-94f7-c13056fcdb9d</t>
-  </si>
-  <si>
-    <t>cae4bae1-d581-4261-bb7a-ba1e05b7f837</t>
-  </si>
-  <si>
-    <t>599d19a2-088a-4836-adcd-8183ebe43ede</t>
-  </si>
-  <si>
-    <t>cc7fe4f6-5d53-41f9-b521-e9f42a05600b</t>
-  </si>
-  <si>
-    <t>2ce89ea6-24c5-4dab-88bc-830e11c4519e</t>
-  </si>
-  <si>
-    <t>70e4c579-a731-4c64-abb1-b4695ac3665a</t>
-  </si>
-  <si>
-    <t>382337d8-4501-40e3-8731-a294f1f89832</t>
-  </si>
-  <si>
-    <t>06833db4-f679-481e-a886-120d5ebaaba8</t>
-  </si>
-  <si>
-    <t>2db177d4-28b3-4736-9646-e701b2d42e24</t>
-  </si>
-  <si>
-    <t>8345107a-6a93-46e4-897f-a45e35e5cc33</t>
-  </si>
-  <si>
-    <t>8c149b8d-9463-480b-b1d0-3a0dfa63c99a</t>
-  </si>
-  <si>
-    <t>9c89cd29-5028-44b1-a98b-5a4a4c87a5ea</t>
-  </si>
-  <si>
-    <t>5353f2c7-ca4c-4f7d-9c9d-d11d44da5777</t>
-  </si>
-  <si>
-    <t>904985db-9f35-4d24-9c94-e091c4dde25a</t>
-  </si>
-  <si>
-    <t>50f47fed-c265-404e-a2df-e73ff0b9df87</t>
-  </si>
-  <si>
-    <t>43c2dfbc-54f9-44da-9d0d-295494e76b99</t>
-  </si>
-  <si>
-    <t>02dc8eb4-5308-4282-8aa0-e946e0fd9668</t>
-  </si>
-  <si>
-    <t>2b2ce9e7-480f-4dd1-a3f0-141d2d77369c</t>
-  </si>
-  <si>
-    <t>2ca2598d-d5b0-41f6-b494-4f2c6c60f3a5</t>
-  </si>
-  <si>
-    <t>7df9cac3-cec8-4199-b995-bd78231559c7</t>
-  </si>
-  <si>
-    <t>8ec971d2-7259-46a4-85ca-ae4f227ada5f</t>
-  </si>
-  <si>
-    <t>285a8bb6-a93b-4270-8cb5-29121336b0ee</t>
-  </si>
-  <si>
-    <t>f479bd76-85c1-4a66-bfbf-26f8be98f5c6</t>
-  </si>
-  <si>
-    <t>2e35137a-3321-4b53-b679-6efea72dfd4f</t>
-  </si>
-  <si>
-    <t>5a268fa4-fe21-4dd8-a37a-7fde53fe8c35</t>
-  </si>
-  <si>
-    <t>d620721a-16a1-4238-8f2d-c2fc124bbe7b</t>
-  </si>
-  <si>
-    <t>05e47d13-d2a0-433c-befc-18f2f6e4043e</t>
-  </si>
-  <si>
-    <t>25de95ab-ee78-4250-ae8e-dc21f9f78df7</t>
-  </si>
-  <si>
-    <t>e569238c-d670-40ce-aac9-04ed91b3a7fb</t>
-  </si>
-  <si>
-    <t>14fda0f2-2bcb-46d2-9c9e-79d74d33bcff</t>
-  </si>
-  <si>
-    <t>350ee43f-535b-43f3-94f3-350de1b26d37</t>
-  </si>
-  <si>
-    <t>1b96e230-f35d-47f6-b6c9-802d8accec33</t>
-  </si>
-  <si>
-    <t>6dc0c9bc-92ad-4fbb-8450-e2d6db8eaf5c</t>
-  </si>
-  <si>
-    <t>443d63c6-beda-47f0-ad96-3f7c91a37e61</t>
-  </si>
-  <si>
-    <t>9d9ebddf-4a0a-4f1f-8e4d-a2b40ec24b28</t>
-  </si>
-  <si>
-    <t>e26ecb6c-b399-4ed4-b40f-819a4cd7f710</t>
-  </si>
-  <si>
-    <t>0ae9dfe5-de0f-4c9a-98e1-779bc13b0953</t>
-  </si>
-  <si>
-    <t>b263d46c-33d0-420a-b454-4679f023e272</t>
-  </si>
-  <si>
-    <t>f1fe50c3-e6b4-4995-a218-a0b29ca816c9</t>
-  </si>
-  <si>
-    <t>8ba5b5c3-cca9-4dc1-8299-f9d5a8d0f198</t>
-  </si>
-  <si>
-    <t>9bf47935-450a-41f5-942c-69d8913df831</t>
-  </si>
-  <si>
-    <t>b7b62b80-acaf-47d7-9bdd-8dd1b7f3bee9</t>
-  </si>
-  <si>
-    <t>cb7103ee-14f2-4334-882a-768c5d51b8a7</t>
-  </si>
-  <si>
-    <t>119c6bf0-53b0-498d-8409-af66c65b81ad</t>
-  </si>
-  <si>
-    <t>c29c5832-f514-40cb-b69b-6f0bae1e786a</t>
-  </si>
-  <si>
-    <t>f3737731-879e-4ecb-b7e1-2f2ec5694c8d</t>
-  </si>
-  <si>
-    <t>f19fa2af-34b4-4033-8d15-2063fe2f355b</t>
-  </si>
-  <si>
-    <t>c7a79bf3-1d7e-414a-8639-b86adc2fe9f4</t>
-  </si>
-  <si>
-    <t>92060116-caec-4089-975c-1baeefc0ffbb</t>
-  </si>
-  <si>
-    <t>d5ef6768-5cd5-43f8-a836-0b62479e61e9</t>
-  </si>
-  <si>
-    <t>4b2cbe3a-9f8d-4fc9-920e-064c877e4c29</t>
-  </si>
-  <si>
-    <t>c0f85d2d-bccf-41e9-a7f3-b4f10663af4c</t>
-  </si>
-  <si>
-    <t>b7115bd6-d8ca-47a6-9d56-7a4256244f0f</t>
-  </si>
-  <si>
-    <t>661eec8b-7dda-4b22-9407-0075ca82bfe8</t>
-  </si>
-  <si>
-    <t>d4319aff-6a99-4385-affc-23698a666c65</t>
-  </si>
-  <si>
-    <t>e81ee96f-9ad5-4925-9e2c-cce33ef9bb26</t>
-  </si>
-  <si>
-    <t>788f6a86-b45e-40c4-ba19-3957c5dbd5d6</t>
-  </si>
-  <si>
-    <t>2f342c39-d1aa-4b2a-805a-0c45f3ee3ea5</t>
-  </si>
-  <si>
-    <t>c392b2bf-f22c-41bb-a005-2c3c47e98a55</t>
-  </si>
-  <si>
-    <t>46325093-6fb6-4854-a3c2-3121e5467a5a</t>
-  </si>
-  <si>
-    <t>f875c5f0-da50-4cbc-a51a-51826ba3939f</t>
-  </si>
-  <si>
-    <t>372089fd-a4b7-4819-a01b-7613a516aed3</t>
-  </si>
-  <si>
-    <t>4225aced-b8fc-4526-858e-e35c2bab452c</t>
-  </si>
-  <si>
-    <t>e0bc6ad0-6927-49a0-affd-55d8719edc88</t>
-  </si>
-  <si>
-    <t>88d136b5-761b-4d04-9261-a722322252bf</t>
-  </si>
-  <si>
-    <t>31a082ae-ea60-4afe-be12-27e007e4d8ef</t>
-  </si>
-  <si>
-    <t>8b64667f-efa2-481e-8ceb-cf37447f386f</t>
-  </si>
-  <si>
-    <t>7da97508-bba6-403b-b52d-27a6a8fb50f4</t>
-  </si>
-  <si>
-    <t>fc8155dd-2cd4-4853-8f72-a8b5c94acf9b</t>
-  </si>
-  <si>
-    <t>0d75e7af-f4fe-49b7-96b7-a1ec2c5df630</t>
-  </si>
-  <si>
-    <t>6f451ab9-87a3-4c66-97ef-747369dc423a</t>
-  </si>
-  <si>
-    <t>d6668905-c1e0-480a-a2e6-67b8f781a8f9</t>
-  </si>
-  <si>
-    <t>f181f5f9-604b-477f-9495-98c72b166356</t>
-  </si>
-  <si>
-    <t>409a5621-a860-4d22-8c80-1a892d8a985f</t>
-  </si>
-  <si>
-    <t>24c85861-bf8d-485b-848f-478a9fc3c33b</t>
-  </si>
-  <si>
-    <t>199097df-b3ea-40d2-9ac5-2b2a8c904033</t>
-  </si>
-  <si>
-    <t>0120ecba-5e43-4098-8d1e-12bf1ceaa771</t>
-  </si>
-  <si>
-    <t>a1b238c7-507f-41e7-864b-98879feafd4b</t>
-  </si>
-  <si>
-    <t>287e17fd-2803-4c94-9957-74d5916e39db</t>
-  </si>
-  <si>
-    <t>a706a0c5-1e5e-4caf-bb75-2cbf2e5c8174</t>
-  </si>
-  <si>
-    <t>2fdc5751-57f8-4925-a044-5587a26a31e4</t>
-  </si>
-  <si>
-    <t>83adecc7-c698-4781-a2a6-195f13cfd11f</t>
-  </si>
-  <si>
-    <t>d922a3c6-96c9-42f6-b86f-7085ed5baa4c</t>
-  </si>
-  <si>
-    <t>21e4b4ff-c402-482e-9670-4409b21144d4</t>
-  </si>
-  <si>
-    <t>403de1a7-3224-4069-980c-4c3a73d1d996</t>
-  </si>
-  <si>
-    <t>652b168e-01c6-4164-b913-0f070009feac</t>
-  </si>
-  <si>
-    <t>6fe9a16a-57d4-4100-95e8-4074efc73762</t>
-  </si>
-  <si>
-    <t>38ee6df5-6eac-4dee-a120-f7010eb51705</t>
-  </si>
-  <si>
-    <t>cdfb1abc-9ec9-416a-8cab-788a383b80ed</t>
-  </si>
-  <si>
-    <t>fed27d39-046c-474a-a0de-4f2dd50fd7ee</t>
-  </si>
-  <si>
-    <t>5d1a7d4a-9a66-4c29-9279-31bb23cd9c76</t>
-  </si>
-  <si>
-    <t>caf22493-a6fe-4694-ab0e-13474760caba</t>
-  </si>
-  <si>
-    <t>5e8da209-c6d9-4b34-a15e-3ed50573ab70</t>
-  </si>
-  <si>
-    <t>9706c210-2b4a-4933-96a0-cfca889b7f55</t>
-  </si>
-  <si>
-    <t>3ffea022-3e79-4b6c-b3e7-b0bfa541bf56</t>
-  </si>
-  <si>
-    <t>dc7f6055-bc76-40b4-8827-5fc0873d0af3</t>
-  </si>
-  <si>
-    <t>595c3fcc-3866-483b-8233-3bde0dc093de</t>
-  </si>
-  <si>
-    <t>4a8a5182-6515-48cb-b861-c3933c0faa8f</t>
-  </si>
-  <si>
-    <t>d3a9c21a-9b49-4d7c-bf72-edc35a31372f</t>
-  </si>
-  <si>
-    <t>8e51dcc8-f903-41e3-b7ae-2a2296fe3151</t>
-  </si>
-  <si>
-    <t>2bc204c6-27eb-43b3-af0a-a14cccdced09</t>
-  </si>
-  <si>
-    <t>f51f75fc-852a-4309-84e6-ae2289855c97</t>
-  </si>
-  <si>
-    <t>ec1bcbba-b09a-4204-bb25-80e30a0149a6</t>
-  </si>
-  <si>
-    <t>c827cbaa-f19f-4cf9-86ed-caab95f6249e</t>
-  </si>
-  <si>
-    <t>133a5382-04b2-4a8e-9f77-cf8857cfdae5</t>
-  </si>
-  <si>
-    <t>6330506a-e434-496c-bfff-d2499d93d75a</t>
-  </si>
-  <si>
-    <t>d17d8d55-ddac-4bb0-bcd3-40cbcb787fe9</t>
-  </si>
-  <si>
-    <t>adeb5384-7db9-4dbc-83ef-8623b7c546f3</t>
-  </si>
-  <si>
-    <t>61aaa381-5a19-4b24-b38b-2cfa7b23214b</t>
-  </si>
-  <si>
-    <t>19651a55-eede-4bcc-9b61-53a60b8f8867</t>
-  </si>
-  <si>
-    <t>62600d72-760f-470d-949a-986204c8162d</t>
-  </si>
-  <si>
-    <t>516db3b3-faed-4398-9adc-e7d3262837f4</t>
-  </si>
-  <si>
-    <t>82aa169c-e55c-4251-b189-5ed9e87cc8a4</t>
-  </si>
-  <si>
-    <t>875815c8-5264-413b-af44-ec5cc33e0b58</t>
-  </si>
-  <si>
-    <t>de3d10a5-41f6-4ed1-bb53-9f4267f22f5c</t>
-  </si>
-  <si>
-    <t>abe2e6ef-e65b-4958-9d30-7d8bf71e9348</t>
-  </si>
-  <si>
-    <t>1c769611-a9db-49b8-87b3-17fd59b717aa</t>
-  </si>
-  <si>
-    <t>d1293612-d08d-468f-87fb-daed63b517ed</t>
-  </si>
-  <si>
-    <t>13eb8adc-d55b-44ae-8fd4-9ff8056d727c</t>
-  </si>
-  <si>
-    <t>9b401cc5-ff2d-49a9-af03-af7014152a44</t>
-  </si>
-  <si>
-    <t>7e7c2213-3385-451d-84bb-3094ddd197a4</t>
-  </si>
-  <si>
-    <t>871cf0f6-89d6-454a-9f20-345137f6831c</t>
-  </si>
-  <si>
-    <t>7bf06044-f792-4703-a11d-01974859cce6</t>
-  </si>
-  <si>
-    <t>0c3017b6-164f-4a6a-b6f7-988331dd5b9b</t>
-  </si>
-  <si>
-    <t>43df7aff-d2aa-4761-b612-53a4390efc6b</t>
-  </si>
-  <si>
-    <t>4ca5f6a3-20cc-46aa-8ee5-1893d1592b0d</t>
-  </si>
-  <si>
-    <t>7e067bd1-09c4-4422-a6fa-291a7d33538b</t>
-  </si>
-  <si>
-    <t>6d267809-8427-4849-954a-8076ccfc1938</t>
-  </si>
-  <si>
-    <t>ab4cdc76-df43-4dfb-9fca-a815141e6b9c</t>
-  </si>
-  <si>
-    <t>70c94109-5514-4426-8f0f-f5b149f1fb51</t>
-  </si>
-  <si>
-    <t>4e3d961a-6288-41f5-8784-cb2ad20a93e7</t>
-  </si>
-  <si>
-    <t>248d70bc-a123-48dd-8e0f-981e51315526</t>
-  </si>
-  <si>
-    <t>ec191fe0-d1f9-4541-a8db-f216feb91c97</t>
-  </si>
-  <si>
-    <t>334b7ca1-32a4-4b6d-990e-5254b95dc9da</t>
-  </si>
-  <si>
-    <t>188ce7c2-cfb9-4c12-904f-aba1d0762a29</t>
-  </si>
-  <si>
-    <t>53048963-b319-44e5-92a8-6a7d0451d672</t>
-  </si>
-  <si>
-    <t>cc1b96bc-6512-45dd-8cb0-c711fa1ce1f7</t>
-  </si>
-  <si>
-    <t>af77986f-d119-47ab-b2c1-744d978b9905</t>
-  </si>
-  <si>
-    <t>ac4d0c1d-1129-45ec-b82e-99b8de1e0b46</t>
-  </si>
-  <si>
-    <t>a32586c3-9eef-4fac-aa13-5555057d6921</t>
-  </si>
-  <si>
-    <t>84202912-6234-4864-85cf-99a470dcb6bd</t>
-  </si>
-  <si>
-    <t>8886ccab-47f8-4c3a-b75c-3056b367cf00</t>
-  </si>
-  <si>
-    <t>673a3512-648e-475f-9f93-6518c33a49d5</t>
-  </si>
-  <si>
-    <t>95d5f60a-f397-467a-823c-be580f1eb850</t>
-  </si>
-  <si>
-    <t>a371bdb0-b463-4c73-8524-0dc5d519df9f</t>
-  </si>
-  <si>
-    <t>8a8699d1-f6fc-4708-9ddc-0d0a05d9a57a</t>
-  </si>
-  <si>
-    <t>65d3330c-33f7-4ca4-b2d3-e1d9678bdf2a</t>
-  </si>
-  <si>
-    <t>749a54ae-7c4e-494c-8998-0df4c880b48e</t>
-  </si>
-  <si>
-    <t>b46a3f85-272a-4fb1-a8c9-52bd1b1c5d5e</t>
-  </si>
-  <si>
-    <t>b66fb4ed-51c3-45dd-b6f5-a64ccb12003b</t>
-  </si>
-  <si>
-    <t>5ba92f91-c07e-47eb-9e06-7cf035d23072</t>
-  </si>
-  <si>
-    <t>e34e30fb-fd82-4197-9e0c-a7e4d64e18bc</t>
-  </si>
-  <si>
-    <t>8005126e-ab25-495b-8826-56cc7f3520b4</t>
-  </si>
-  <si>
-    <t>7f00077a-e532-4562-a571-43d3e2877715</t>
-  </si>
-  <si>
-    <t>0908490f-5979-4981-808f-6c2517d983b6</t>
-  </si>
-  <si>
-    <t>63ff4f0c-c090-435e-af21-747074124355</t>
-  </si>
-  <si>
-    <t>136497ab-676e-46a6-9d6d-8c00bf1c0c7c</t>
-  </si>
-  <si>
-    <t>d5b059ab-21d0-4681-bb3b-a70c65982f71</t>
-  </si>
-  <si>
-    <t>93968145-0a28-4263-ac64-4814d339fc56</t>
-  </si>
-  <si>
-    <t>696d9fb7-1b96-43df-b796-55a1cfaf3271</t>
-  </si>
-  <si>
-    <t>ed155092-2336-4ac3-8391-ef8ca80c2649</t>
-  </si>
-  <si>
-    <t>e9f941af-2243-49e2-9f89-dd3daf9b7f03</t>
-  </si>
-  <si>
-    <t>ea195ea3-bec2-46a7-99ee-5bdce4e78871</t>
-  </si>
-  <si>
-    <t>0d39e230-e0e6-4506-bb8b-9603b89b601c</t>
-  </si>
-  <si>
-    <t>11a237fd-68bb-4cc7-b7dc-97476d374037</t>
-  </si>
-  <si>
-    <t>68d530a8-abef-460c-80bc-90aa1dfcf7ce</t>
-  </si>
-  <si>
-    <t>61cef66b-35f0-4ca2-9b0a-7b3218df9b49</t>
-  </si>
-  <si>
-    <t>9199241d-cdbf-443e-9053-9e5ad8551802</t>
+    <t>643cff9260890a3b38e3130d_pre</t>
+  </si>
+  <si>
+    <t>656606a373aba3beafcf538a_pre</t>
+  </si>
+  <si>
+    <t>64f1dbf275e44ffd381b8985_pre</t>
+  </si>
+  <si>
+    <t>646dc14e28531e7b267adb50_pre</t>
+  </si>
+  <si>
+    <t>6441a254a387409ea3ef316b_pre</t>
+  </si>
+  <si>
+    <t>5bbbdca68f3bd70001e713ef_pre</t>
+  </si>
+  <si>
+    <t>653a743f3112ad79e0e9c2f3_pre</t>
+  </si>
+  <si>
+    <t>651d020dba3016438d70773e_pre</t>
+  </si>
+  <si>
+    <t>65216081309ddac9a26e5d3a_pre</t>
+  </si>
+  <si>
+    <t>65270eab7c3eeb6fda130ee8_pre</t>
+  </si>
+  <si>
+    <t>6516d8dd04d46519d544f6ae_pre</t>
+  </si>
+  <si>
+    <t>6521568f62c55df10e59dc9a_pre</t>
+  </si>
+  <si>
+    <t>656b4e172906db15e11ebce5_pre</t>
+  </si>
+  <si>
+    <t>6557747cc5cd5cb46edfe6c6_pre</t>
+  </si>
+  <si>
+    <t>6554d5f1a5b42aea269aa82a_pre</t>
+  </si>
+  <si>
+    <t>6533fca6a20c492a2baf878e_pre</t>
+  </si>
+  <si>
+    <t>6510335c6c5ba95f95c5af89_pre</t>
+  </si>
+  <si>
+    <t>654baf4c709dd68c04a8b09a_pre</t>
+  </si>
+  <si>
+    <t>65674ca014879b38a634b741_pre</t>
+  </si>
+  <si>
+    <t>65413d7a889c08941364abb6_pre</t>
+  </si>
+  <si>
+    <t>6505b19314eb42b422d59509_pre</t>
+  </si>
+  <si>
+    <t>653fbb7899638eb02212c25b_pre</t>
+  </si>
+  <si>
+    <t>64e220abe394efe48bfe28f8_pre</t>
+  </si>
+  <si>
+    <t>6557923d4a9cc0c7d81cd60d_pre</t>
+  </si>
+  <si>
+    <t>607079a28a504f214dfd77b8_pre</t>
+  </si>
+  <si>
+    <t>6503144bcc000df7879d9637_pre</t>
+  </si>
+  <si>
+    <t>6543cbb6e554d07ea95a1db8_pre</t>
+  </si>
+  <si>
+    <t>6517299ba3d7cde45394692a_pre</t>
+  </si>
+  <si>
+    <t>644ac0e41a2fabcf5d563f20_pre</t>
+  </si>
+  <si>
+    <t>6554d26c5dae0f7aa6a24b19_pre</t>
+  </si>
+  <si>
+    <t>5fff0b0bcbc37a5f5928ed26_pre</t>
+  </si>
+  <si>
+    <t>651311510abdac9c5b9c6c4b_pre</t>
+  </si>
+  <si>
+    <t>615416df060f5730a1d4e113_pre</t>
+  </si>
+  <si>
+    <t>656e5185676b397a22189d00_pre</t>
+  </si>
+  <si>
+    <t>65410ad762a7e3c570b6273c_pre</t>
+  </si>
+  <si>
+    <t>6516d284e2e240661699806c_pre</t>
+  </si>
+  <si>
+    <t>64fdee2b969a06603ae3226d_pre</t>
+  </si>
+  <si>
+    <t>5f738b981a302b0d6d6405aa_pre</t>
+  </si>
+  <si>
+    <t>65465caa5dcdb76a16d563b3_pre</t>
+  </si>
+  <si>
+    <t>5dea808cce8d8d19f5424b21_pre</t>
+  </si>
+  <si>
+    <t>65170df8def70fb50be8068e_pre</t>
+  </si>
+  <si>
+    <t>63c0157fbc63b6511d336764_pre</t>
+  </si>
+  <si>
+    <t>615452aaabb932ada88ef3ca_pre</t>
+  </si>
+  <si>
+    <t>5e6a3e3d265930022e81c70b_pre</t>
+  </si>
+  <si>
+    <t>6524e0ef44178670528207b7_pre</t>
+  </si>
+  <si>
+    <t>6572deb3c978dbcde1a8106c_pre</t>
+  </si>
+  <si>
+    <t>6516d540a78298897619e273_pre</t>
+  </si>
+  <si>
+    <t>651f003609736cc7a85d4328_pre</t>
+  </si>
+  <si>
+    <t>653916355709faa03524b0df_pre</t>
+  </si>
+  <si>
+    <t>638e2654a069e9c741d21ce3_pre</t>
+  </si>
+  <si>
+    <t>65391c7ecf65866247606910_pre</t>
+  </si>
+  <si>
+    <t>65674761184f5501367c963d_pre</t>
+  </si>
+  <si>
+    <t>631f3fde43831da4ae27754b_pre</t>
+  </si>
+  <si>
+    <t>63eb7c1abdbdf911ec1201ab_pre</t>
+  </si>
+  <si>
+    <t>6518e333bba544ebf169f41b_pre</t>
+  </si>
+  <si>
+    <t>650c02a928518783a1b963fd_pre</t>
+  </si>
+  <si>
+    <t>5be95af71ca46b0001862746_pre</t>
+  </si>
+  <si>
+    <t>5b0a869f1e55760001b93fa3_pre</t>
+  </si>
+  <si>
+    <t>654b4a0e936bc8d3c57bfbf0_pre</t>
+  </si>
+  <si>
+    <t>65182c5a0cadd3291661b9e0_pre</t>
+  </si>
+  <si>
+    <t>6526a2a40ce1608344c552bc_pre</t>
+  </si>
+  <si>
+    <t>5be454621effe60001cbf290_pre</t>
+  </si>
+  <si>
+    <t>6529483ef2abe408d574860a_pre</t>
+  </si>
+  <si>
+    <t>64ef6d994d6b1f11074bdfcf_pre</t>
+  </si>
+  <si>
+    <t>5d43c606773d8b00016eaa8a_pre</t>
+  </si>
+  <si>
+    <t>60fe7985ba99343ad0b893b7_pre</t>
+  </si>
+  <si>
+    <t>60513ec07ee46769ed029be4_pre</t>
+  </si>
+  <si>
+    <t>6516d4259c30f249ac643d4b_pre</t>
+  </si>
+  <si>
+    <t>6516d321ac5a66a7aef87507_pre</t>
+  </si>
+  <si>
+    <t>6565f2ba13586fa869dd3b28_pre</t>
+  </si>
+  <si>
+    <t>63c54053d14cc248d3bffebd_pre</t>
+  </si>
+  <si>
+    <t>650c42b04e90f6c176d20f48_pre</t>
+  </si>
+  <si>
+    <t>611ba1976cd48fdde1f9edd3_pre</t>
+  </si>
+  <si>
+    <t>59a426b35fd74b0001abfa4f_pre</t>
+  </si>
+  <si>
+    <t>5bf4033ff719c9000153d38e_pre</t>
+  </si>
+  <si>
+    <t>6480b160d51d051b42f67b3d_pre</t>
+  </si>
+  <si>
+    <t>5aad4225811b2000016f6ed1_pre</t>
+  </si>
+  <si>
+    <t>5e9f28299286a70a21369a87_pre</t>
+  </si>
+  <si>
+    <t>655f017761462616d393ed61_pre</t>
+  </si>
+  <si>
+    <t>6458f51ce9dfaceaf66923b7_pre</t>
+  </si>
+  <si>
+    <t>6568ad4a9ad5cefdb6e70dc7_pre</t>
+  </si>
+  <si>
+    <t>6516f474d21c67a9a5bbb712_pre</t>
+  </si>
+  <si>
+    <t>604d17eb4931a500d6e0a3d3_pre</t>
+  </si>
+  <si>
+    <t>655906b1346b2b209cd19772_pre</t>
+  </si>
+  <si>
+    <t>64369636de5954c6029e89b4_pre</t>
+  </si>
+  <si>
+    <t>6519d311acb10856b9cff800_pre</t>
+  </si>
+  <si>
+    <t>6571d06ee2f60c04ca775e78_pre</t>
+  </si>
+  <si>
+    <t>653671ae2ac8d502b52b1bb3_pre</t>
+  </si>
+  <si>
+    <t>60fd15295d6b2a3711cafbd2_pre</t>
+  </si>
+  <si>
+    <t>651758fd2a0e6965260a89fc_pre</t>
+  </si>
+  <si>
+    <t>6427068bce4fc1aa335ad025_pre</t>
+  </si>
+  <si>
+    <t>5dd08cf019eecb169dc131ba_pre</t>
+  </si>
+  <si>
+    <t>627bbf69ab2788507bc421a2_pre</t>
+  </si>
+  <si>
+    <t>5ebe6e4a226f3b1c53cd0626_pre</t>
+  </si>
+  <si>
+    <t>63d02bd28e37a2abe1006c61_pre</t>
+  </si>
+  <si>
+    <t>652d1a0830b934d1643b80c5_pre</t>
+  </si>
+  <si>
+    <t>6517e9bc213462dc2254bd24_pre</t>
+  </si>
+  <si>
+    <t>650ff7a187874a12d765b5ef_pre</t>
+  </si>
+  <si>
+    <t>65170d2924df1aca5e1b075b_pre</t>
+  </si>
+  <si>
+    <t>6517283ed2294dbc8561979d_pre</t>
+  </si>
+  <si>
+    <t>65367487f0d1c1607d3665c9_pre</t>
+  </si>
+  <si>
+    <t>654e379c8578beb912aee2ff_pre</t>
+  </si>
+  <si>
+    <t>6039b30f86b21c537bfb9448_pre</t>
+  </si>
+  <si>
+    <t>656c50a4c053d63a280ad6d0_pre</t>
+  </si>
+  <si>
+    <t>6536973604f263f3c70495bf_pre</t>
+  </si>
+  <si>
+    <t>654a45fc528885d395cd5cab_pre</t>
+  </si>
+  <si>
+    <t>5c9fd46cfd19090012b4ac8b_pre</t>
+  </si>
+  <si>
+    <t>646219bb0b91a6f3327e39fb_pre</t>
+  </si>
+  <si>
+    <t>6384d76e3da4c98dc29e390b_pre</t>
+  </si>
+  <si>
+    <t>6521569041baced19add37bc_pre</t>
+  </si>
+  <si>
+    <t>5da727bfc2a70a0011a128e0_pre</t>
+  </si>
+  <si>
+    <t>5de81f0edb424d7965702d2d_pre</t>
+  </si>
+  <si>
+    <t>64f1e6cd05138cd766340792_pre</t>
+  </si>
+  <si>
+    <t>64fee13e6324ea4884bcc9db_pre</t>
+  </si>
+  <si>
+    <t>6505c50f48dfd793a7787b8a_pre</t>
+  </si>
+  <si>
+    <t>63eb38339e72d01818aeb71b_pre</t>
+  </si>
+  <si>
+    <t>65313217ba43953a5e06fcae_pre</t>
+  </si>
+  <si>
+    <t>6571e455af2e5eae9adea54a_pre</t>
+  </si>
+  <si>
+    <t>6123c4f8e486767a57db9afe_pre</t>
+  </si>
+  <si>
+    <t>650c2a3e5ae50ab8668448de_pre</t>
+  </si>
+  <si>
+    <t>653d060aaf01dfc1443ad299_pre</t>
+  </si>
+  <si>
+    <t>650a5cc55e8ddf8bae0b81fb_pre</t>
+  </si>
+  <si>
+    <t>640b7f3428d986ad3da9ebcf_pre</t>
+  </si>
+  <si>
+    <t>653bb9c18fa69d049372d45f_pre</t>
+  </si>
+  <si>
+    <t>5ed0f0bb34177d0009582f38_pre</t>
+  </si>
+  <si>
+    <t>604d26915c5dc2a98d18c7fd_pre</t>
+  </si>
+  <si>
+    <t>5dd5855018beb6544df7f797_pre</t>
+  </si>
+  <si>
+    <t>63c33a62f56571779a295a6f_pre</t>
+  </si>
+  <si>
+    <t>653bbdbd990bb0039d427925_pre</t>
+  </si>
+  <si>
+    <t>5f298b2b7823df0a46e25d81_pre</t>
+  </si>
+  <si>
+    <t>6559eb6c636ef499cb5e1f85_pre</t>
+  </si>
+  <si>
+    <t>653be644c2d5f2b6d285699e_pre</t>
+  </si>
+  <si>
+    <t>5edc8e2eaa0f2295a0fcef85_pre</t>
+  </si>
+  <si>
+    <t>646b607e88557c2ff4f0de85_pre</t>
+  </si>
+  <si>
+    <t>5fb42f807e81960acbfdb22e_pre</t>
+  </si>
+  <si>
+    <t>62ed054b4bf00da20ea22dc2_pre</t>
+  </si>
+  <si>
+    <t>629756625dc7cf458e36151f_pre</t>
+  </si>
+  <si>
+    <t>650455b9cde6207c1ebd732b_pre</t>
+  </si>
+  <si>
+    <t>603a80b01bb75f608c3dbb0d_pre</t>
+  </si>
+  <si>
+    <t>65410b3f1de864e712bb267d_pre</t>
+  </si>
+  <si>
+    <t>62c42b020ddc9564f77e2e24_pre</t>
+  </si>
+  <si>
+    <t>6053d1011605ac6f3164bc99_pre</t>
+  </si>
+  <si>
+    <t>65170641ac562bb61fb8e647_pre</t>
+  </si>
+  <si>
+    <t>652680aaf06124cc46807a30_pre</t>
+  </si>
+  <si>
+    <t>655b4ea3ab2c763e739cb199_pre</t>
+  </si>
+  <si>
+    <t>6525ab791fb0b3aaf866d7c7_pre</t>
+  </si>
+  <si>
+    <t>591a1f4800a5650001276188_pre</t>
+  </si>
+  <si>
+    <t>655c754ee949a617a358b8c5_pre</t>
+  </si>
+  <si>
+    <t>6304a2502fbdd7626ed9c2ac_pre</t>
+  </si>
+  <si>
+    <t>652fe4a08d5ecae18fc4fe31_pre</t>
+  </si>
+  <si>
+    <t>6543aeb6dd91d965fc3df508_pre</t>
+  </si>
+  <si>
+    <t>6536b3467fc9c8f7dbabcf51_pre</t>
+  </si>
+  <si>
+    <t>653d07d22dd9d12c6e7b8082_pre</t>
+  </si>
+  <si>
+    <t>6538ef6ac2e74e7d85a136ca_pre</t>
+  </si>
+  <si>
+    <t>63b6be975097f6e31872fc0e_pre</t>
+  </si>
+  <si>
+    <t>6544ea06d33e1704f993f76f_pre</t>
+  </si>
+  <si>
+    <t>60207652caa62b6a34ff96dc_pre</t>
+  </si>
+  <si>
+    <t>610905a730569ffea2fbdd0b_pre</t>
+  </si>
+  <si>
+    <t>5a942689b5e2110001c67d93_pre</t>
+  </si>
+  <si>
+    <t>645b8b2128bbb68d29778068_pre</t>
+  </si>
+  <si>
+    <t>6516d3c10cc8996984d514f4_pre</t>
+  </si>
+  <si>
+    <t>604b169fe4b7991ec08da3a6_pre</t>
+  </si>
+  <si>
+    <t>6569ffc2439eb88f22d4e8bc_pre</t>
+  </si>
+  <si>
+    <t>5fcf9f17f5a7c20ba38e9cc9_pre</t>
+  </si>
+  <si>
+    <t>64ff13ded28d546281ffb6b5_pre</t>
+  </si>
+  <si>
+    <t>6544fd5d0fb2eaaf83e2ddc9_pre</t>
+  </si>
+  <si>
+    <t>63fd0b137e38c72ea19176aa_pre</t>
+  </si>
+  <si>
+    <t>653a50254cd0995ce9fed45e_pre</t>
+  </si>
+  <si>
+    <t>651ec655d2ef1a3ba8e64470_pre</t>
+  </si>
+  <si>
+    <t>5a7fab56f49c9a0001f3549e_pre</t>
+  </si>
+  <si>
+    <t>6554d1f1fda70c02063f51bd_pre</t>
+  </si>
+  <si>
+    <t>6552628d0dfe6b458c390708_pre</t>
+  </si>
+  <si>
+    <t>5b21646bdf28a7000166f4dc_pre</t>
+  </si>
+  <si>
+    <t>6568ccd0468b7384e18af74b_pre</t>
+  </si>
+  <si>
+    <t>6480b08b4e783b4c327cf4a8_pre</t>
+  </si>
+  <si>
+    <t>6505e770a24e4561f219381e_pre</t>
+  </si>
+  <si>
+    <t>653adf50c2b4d95715fa0383_pre</t>
+  </si>
+  <si>
+    <t>63dfd4fb58435f30c7e5b04b_pre</t>
+  </si>
+  <si>
+    <t>65526268c396c0c75dcefdf2_pre</t>
+  </si>
+  <si>
+    <t>6560c1ff0b97f1d037b3c2dd_pre</t>
+  </si>
+  <si>
+    <t>6521ac4e830108f7281e8644_pre</t>
+  </si>
+  <si>
+    <t>606b94352e103bc54d43321b_pre</t>
+  </si>
+  <si>
+    <t>64e74f0c7ba1863371602661_pre</t>
+  </si>
+  <si>
+    <t>6532825749ca31d35c5cc482_pre</t>
+  </si>
+  <si>
+    <t>63b87d2c9edd47ad702413a1_pre</t>
+  </si>
+  <si>
+    <t>5f32d5f107d49607c3f6cf7a_pre</t>
+  </si>
+  <si>
+    <t>6429682ff18d08f9eed7d9e7_pre</t>
+  </si>
+  <si>
+    <t>643c243ff0ef4cb25c20a392_pre</t>
+  </si>
+  <si>
+    <t>63cf5dcd6dbd0452632b58bb_pre</t>
+  </si>
+  <si>
+    <t>617082143afa2b9f049f8b3b_pre</t>
+  </si>
+  <si>
+    <t>647e2500ac34cb60b8e1348d_pre</t>
+  </si>
+  <si>
+    <t>61574c44d4bd510e680f9d7a_pre</t>
+  </si>
+  <si>
+    <t>6516ff4cda6f1e36fd05b1cc_pre</t>
+  </si>
+  <si>
+    <t>5f4cde1cbfcaa81fc4dbf57d_pre</t>
+  </si>
+  <si>
+    <t>6561ff666e87c03638f8fb11_pre</t>
+  </si>
+  <si>
+    <t>64539733186ad1764e4c2b74_pre</t>
+  </si>
+  <si>
+    <t>63cfbea470ab1bba9db30082_pre</t>
+  </si>
+  <si>
+    <t>65034478b7a228b2bdfdca5c_pre</t>
+  </si>
+  <si>
+    <t>6526b4db08c36959a00e69c4_pre</t>
+  </si>
+  <si>
+    <t>6537d0d238ce085ea079c318_pre</t>
+  </si>
+  <si>
+    <t>6570908f385d595d5df25c68_pre</t>
+  </si>
+  <si>
+    <t>652156df21a8be7bb4c6f4e7_pre</t>
+  </si>
+  <si>
+    <t>616b2d4ff5ffb8b86c08661b_pre</t>
+  </si>
+  <si>
+    <t>65426792dac360c44e4908a7_pre</t>
+  </si>
+  <si>
+    <t>65772f25af9bdd7c3ae47af5_pre</t>
+  </si>
+  <si>
+    <t>652d2a7b11d97787933195c6_pre</t>
+  </si>
+  <si>
+    <t>6516d85620c0017a8db27afc_pre</t>
+  </si>
+  <si>
+    <t>654a76de0874380f590ca432_pre</t>
+  </si>
+  <si>
+    <t>63eb514012c203a7a2146262_pre</t>
+  </si>
+  <si>
+    <t>6046b9bf731b0611fe4d0159_pre</t>
+  </si>
+  <si>
+    <t>5f5494aa76d6147f7ca89533_pre</t>
+  </si>
+  <si>
+    <t>5e5fbff6de7bcc2fc7f396db_pre</t>
+  </si>
+  <si>
+    <t>613b5e02f007dc6d30164fb3_pre</t>
+  </si>
+  <si>
+    <t>64f1e17e5439f81a8eade6c2_pre</t>
+  </si>
+  <si>
+    <t>5bceffb6a69cc50001d42ea5_pre</t>
+  </si>
+  <si>
+    <t>60fd19bb0d1f1d54adccc4fa_pre</t>
+  </si>
+  <si>
+    <t>643cff9260890a3b38e3130d_post</t>
+  </si>
+  <si>
+    <t>656606a373aba3beafcf538a_post</t>
+  </si>
+  <si>
+    <t>64f1dbf275e44ffd381b8985_post</t>
+  </si>
+  <si>
+    <t>646dc14e28531e7b267adb50_post</t>
+  </si>
+  <si>
+    <t>6441a254a387409ea3ef316b_post</t>
+  </si>
+  <si>
+    <t>5bbbdca68f3bd70001e713ef_post</t>
+  </si>
+  <si>
+    <t>653a743f3112ad79e0e9c2f3_post</t>
+  </si>
+  <si>
+    <t>651d020dba3016438d70773e_post</t>
+  </si>
+  <si>
+    <t>65216081309ddac9a26e5d3a_post</t>
+  </si>
+  <si>
+    <t>65270eab7c3eeb6fda130ee8_post</t>
+  </si>
+  <si>
+    <t>6516d8dd04d46519d544f6ae_post</t>
+  </si>
+  <si>
+    <t>6521568f62c55df10e59dc9a_post</t>
+  </si>
+  <si>
+    <t>656b4e172906db15e11ebce5_post</t>
+  </si>
+  <si>
+    <t>6557747cc5cd5cb46edfe6c6_post</t>
+  </si>
+  <si>
+    <t>6554d5f1a5b42aea269aa82a_post</t>
+  </si>
+  <si>
+    <t>6533fca6a20c492a2baf878e_post</t>
+  </si>
+  <si>
+    <t>6510335c6c5ba95f95c5af89_post</t>
+  </si>
+  <si>
+    <t>654baf4c709dd68c04a8b09a_post</t>
+  </si>
+  <si>
+    <t>65674ca014879b38a634b741_post</t>
+  </si>
+  <si>
+    <t>65413d7a889c08941364abb6_post</t>
+  </si>
+  <si>
+    <t>6505b19314eb42b422d59509_post</t>
+  </si>
+  <si>
+    <t>653fbb7899638eb02212c25b_post</t>
+  </si>
+  <si>
+    <t>64e220abe394efe48bfe28f8_post</t>
+  </si>
+  <si>
+    <t>6557923d4a9cc0c7d81cd60d_post</t>
+  </si>
+  <si>
+    <t>607079a28a504f214dfd77b8_post</t>
+  </si>
+  <si>
+    <t>6503144bcc000df7879d9637_post</t>
+  </si>
+  <si>
+    <t>6543cbb6e554d07ea95a1db8_post</t>
+  </si>
+  <si>
+    <t>6517299ba3d7cde45394692a_post</t>
+  </si>
+  <si>
+    <t>644ac0e41a2fabcf5d563f20_post</t>
+  </si>
+  <si>
+    <t>6554d26c5dae0f7aa6a24b19_post</t>
+  </si>
+  <si>
+    <t>5fff0b0bcbc37a5f5928ed26_post</t>
+  </si>
+  <si>
+    <t>651311510abdac9c5b9c6c4b_post</t>
+  </si>
+  <si>
+    <t>615416df060f5730a1d4e113_post</t>
+  </si>
+  <si>
+    <t>656e5185676b397a22189d00_post</t>
+  </si>
+  <si>
+    <t>65410ad762a7e3c570b6273c_post</t>
+  </si>
+  <si>
+    <t>6516d284e2e240661699806c_post</t>
+  </si>
+  <si>
+    <t>64fdee2b969a06603ae3226d_post</t>
+  </si>
+  <si>
+    <t>5f738b981a302b0d6d6405aa_post</t>
+  </si>
+  <si>
+    <t>65465caa5dcdb76a16d563b3_post</t>
+  </si>
+  <si>
+    <t>5dea808cce8d8d19f5424b21_post</t>
+  </si>
+  <si>
+    <t>65170df8def70fb50be8068e_post</t>
+  </si>
+  <si>
+    <t>63c0157fbc63b6511d336764_post</t>
+  </si>
+  <si>
+    <t>615452aaabb932ada88ef3ca_post</t>
+  </si>
+  <si>
+    <t>5e6a3e3d265930022e81c70b_post</t>
+  </si>
+  <si>
+    <t>6524e0ef44178670528207b7_post</t>
+  </si>
+  <si>
+    <t>6572deb3c978dbcde1a8106c_post</t>
+  </si>
+  <si>
+    <t>6516d540a78298897619e273_post</t>
+  </si>
+  <si>
+    <t>651f003609736cc7a85d4328_post</t>
+  </si>
+  <si>
+    <t>653916355709faa03524b0df_post</t>
+  </si>
+  <si>
+    <t>638e2654a069e9c741d21ce3_post</t>
+  </si>
+  <si>
+    <t>65391c7ecf65866247606910_post</t>
+  </si>
+  <si>
+    <t>65674761184f5501367c963d_post</t>
+  </si>
+  <si>
+    <t>631f3fde43831da4ae27754b_post</t>
+  </si>
+  <si>
+    <t>63eb7c1abdbdf911ec1201ab_post</t>
+  </si>
+  <si>
+    <t>6518e333bba544ebf169f41b_post</t>
+  </si>
+  <si>
+    <t>650c02a928518783a1b963fd_post</t>
+  </si>
+  <si>
+    <t>5be95af71ca46b0001862746_post</t>
+  </si>
+  <si>
+    <t>5b0a869f1e55760001b93fa3_post</t>
+  </si>
+  <si>
+    <t>654b4a0e936bc8d3c57bfbf0_post</t>
+  </si>
+  <si>
+    <t>65182c5a0cadd3291661b9e0_post</t>
+  </si>
+  <si>
+    <t>6526a2a40ce1608344c552bc_post</t>
+  </si>
+  <si>
+    <t>5be454621effe60001cbf290_post</t>
+  </si>
+  <si>
+    <t>6529483ef2abe408d574860a_post</t>
+  </si>
+  <si>
+    <t>64ef6d994d6b1f11074bdfcf_post</t>
+  </si>
+  <si>
+    <t>5d43c606773d8b00016eaa8a_post</t>
+  </si>
+  <si>
+    <t>60fe7985ba99343ad0b893b7_post</t>
+  </si>
+  <si>
+    <t>60513ec07ee46769ed029be4_post</t>
+  </si>
+  <si>
+    <t>6516d4259c30f249ac643d4b_post</t>
+  </si>
+  <si>
+    <t>6516d321ac5a66a7aef87507_post</t>
+  </si>
+  <si>
+    <t>6565f2ba13586fa869dd3b28_post</t>
+  </si>
+  <si>
+    <t>63c54053d14cc248d3bffebd_post</t>
+  </si>
+  <si>
+    <t>650c42b04e90f6c176d20f48_post</t>
+  </si>
+  <si>
+    <t>611ba1976cd48fdde1f9edd3_post</t>
+  </si>
+  <si>
+    <t>59a426b35fd74b0001abfa4f_post</t>
+  </si>
+  <si>
+    <t>5bf4033ff719c9000153d38e_post</t>
+  </si>
+  <si>
+    <t>6480b160d51d051b42f67b3d_post</t>
+  </si>
+  <si>
+    <t>5aad4225811b2000016f6ed1_post</t>
+  </si>
+  <si>
+    <t>5e9f28299286a70a21369a87_post</t>
+  </si>
+  <si>
+    <t>655f017761462616d393ed61_post</t>
+  </si>
+  <si>
+    <t>6458f51ce9dfaceaf66923b7_post</t>
+  </si>
+  <si>
+    <t>6568ad4a9ad5cefdb6e70dc7_post</t>
+  </si>
+  <si>
+    <t>6516f474d21c67a9a5bbb712_post</t>
+  </si>
+  <si>
+    <t>604d17eb4931a500d6e0a3d3_post</t>
+  </si>
+  <si>
+    <t>655906b1346b2b209cd19772_post</t>
+  </si>
+  <si>
+    <t>64369636de5954c6029e89b4_post</t>
+  </si>
+  <si>
+    <t>6519d311acb10856b9cff800_post</t>
+  </si>
+  <si>
+    <t>6571d06ee2f60c04ca775e78_post</t>
+  </si>
+  <si>
+    <t>653671ae2ac8d502b52b1bb3_post</t>
+  </si>
+  <si>
+    <t>60fd15295d6b2a3711cafbd2_post</t>
+  </si>
+  <si>
+    <t>651758fd2a0e6965260a89fc_post</t>
+  </si>
+  <si>
+    <t>6427068bce4fc1aa335ad025_post</t>
+  </si>
+  <si>
+    <t>5dd08cf019eecb169dc131ba_post</t>
+  </si>
+  <si>
+    <t>627bbf69ab2788507bc421a2_post</t>
+  </si>
+  <si>
+    <t>5ebe6e4a226f3b1c53cd0626_post</t>
+  </si>
+  <si>
+    <t>63d02bd28e37a2abe1006c61_post</t>
+  </si>
+  <si>
+    <t>652d1a0830b934d1643b80c5_post</t>
+  </si>
+  <si>
+    <t>6517e9bc213462dc2254bd24_post</t>
+  </si>
+  <si>
+    <t>650ff7a187874a12d765b5ef_post</t>
+  </si>
+  <si>
+    <t>65170d2924df1aca5e1b075b_post</t>
+  </si>
+  <si>
+    <t>6517283ed2294dbc8561979d_post</t>
+  </si>
+  <si>
+    <t>65367487f0d1c1607d3665c9_post</t>
+  </si>
+  <si>
+    <t>654e379c8578beb912aee2ff_post</t>
+  </si>
+  <si>
+    <t>6039b30f86b21c537bfb9448_post</t>
+  </si>
+  <si>
+    <t>656c50a4c053d63a280ad6d0_post</t>
+  </si>
+  <si>
+    <t>6536973604f263f3c70495bf_post</t>
+  </si>
+  <si>
+    <t>654a45fc528885d395cd5cab_post</t>
+  </si>
+  <si>
+    <t>5c9fd46cfd19090012b4ac8b_post</t>
+  </si>
+  <si>
+    <t>646219bb0b91a6f3327e39fb_post</t>
+  </si>
+  <si>
+    <t>6384d76e3da4c98dc29e390b_post</t>
+  </si>
+  <si>
+    <t>6521569041baced19add37bc_post</t>
+  </si>
+  <si>
+    <t>5da727bfc2a70a0011a128e0_post</t>
+  </si>
+  <si>
+    <t>5de81f0edb424d7965702d2d_post</t>
+  </si>
+  <si>
+    <t>64f1e6cd05138cd766340792_post</t>
+  </si>
+  <si>
+    <t>64fee13e6324ea4884bcc9db_post</t>
+  </si>
+  <si>
+    <t>6505c50f48dfd793a7787b8a_post</t>
+  </si>
+  <si>
+    <t>63eb38339e72d01818aeb71b_post</t>
+  </si>
+  <si>
+    <t>65313217ba43953a5e06fcae_post</t>
+  </si>
+  <si>
+    <t>6571e455af2e5eae9adea54a_post</t>
+  </si>
+  <si>
+    <t>6123c4f8e486767a57db9afe_post</t>
+  </si>
+  <si>
+    <t>650c2a3e5ae50ab8668448de_post</t>
+  </si>
+  <si>
+    <t>653d060aaf01dfc1443ad299_post</t>
+  </si>
+  <si>
+    <t>650a5cc55e8ddf8bae0b81fb_post</t>
+  </si>
+  <si>
+    <t>640b7f3428d986ad3da9ebcf_post</t>
+  </si>
+  <si>
+    <t>653bb9c18fa69d049372d45f_post</t>
+  </si>
+  <si>
+    <t>5ed0f0bb34177d0009582f38_post</t>
+  </si>
+  <si>
+    <t>604d26915c5dc2a98d18c7fd_post</t>
+  </si>
+  <si>
+    <t>5dd5855018beb6544df7f797_post</t>
+  </si>
+  <si>
+    <t>63c33a62f56571779a295a6f_post</t>
+  </si>
+  <si>
+    <t>653bbdbd990bb0039d427925_post</t>
+  </si>
+  <si>
+    <t>5f298b2b7823df0a46e25d81_post</t>
+  </si>
+  <si>
+    <t>6559eb6c636ef499cb5e1f85_post</t>
+  </si>
+  <si>
+    <t>653be644c2d5f2b6d285699e_post</t>
+  </si>
+  <si>
+    <t>5edc8e2eaa0f2295a0fcef85_post</t>
+  </si>
+  <si>
+    <t>646b607e88557c2ff4f0de85_post</t>
+  </si>
+  <si>
+    <t>5fb42f807e81960acbfdb22e_post</t>
+  </si>
+  <si>
+    <t>62ed054b4bf00da20ea22dc2_post</t>
+  </si>
+  <si>
+    <t>629756625dc7cf458e36151f_post</t>
+  </si>
+  <si>
+    <t>650455b9cde6207c1ebd732b_post</t>
+  </si>
+  <si>
+    <t>603a80b01bb75f608c3dbb0d_post</t>
+  </si>
+  <si>
+    <t>65410b3f1de864e712bb267d_post</t>
+  </si>
+  <si>
+    <t>62c42b020ddc9564f77e2e24_post</t>
+  </si>
+  <si>
+    <t>6053d1011605ac6f3164bc99_post</t>
+  </si>
+  <si>
+    <t>65170641ac562bb61fb8e647_post</t>
+  </si>
+  <si>
+    <t>652680aaf06124cc46807a30_post</t>
+  </si>
+  <si>
+    <t>655b4ea3ab2c763e739cb199_post</t>
+  </si>
+  <si>
+    <t>6525ab791fb0b3aaf866d7c7_post</t>
+  </si>
+  <si>
+    <t>591a1f4800a5650001276188_post</t>
+  </si>
+  <si>
+    <t>655c754ee949a617a358b8c5_post</t>
+  </si>
+  <si>
+    <t>6304a2502fbdd7626ed9c2ac_post</t>
+  </si>
+  <si>
+    <t>652fe4a08d5ecae18fc4fe31_post</t>
+  </si>
+  <si>
+    <t>6543aeb6dd91d965fc3df508_post</t>
+  </si>
+  <si>
+    <t>6536b3467fc9c8f7dbabcf51_post</t>
+  </si>
+  <si>
+    <t>653d07d22dd9d12c6e7b8082_post</t>
+  </si>
+  <si>
+    <t>6538ef6ac2e74e7d85a136ca_post</t>
+  </si>
+  <si>
+    <t>63b6be975097f6e31872fc0e_post</t>
+  </si>
+  <si>
+    <t>6544ea06d33e1704f993f76f_post</t>
+  </si>
+  <si>
+    <t>60207652caa62b6a34ff96dc_post</t>
+  </si>
+  <si>
+    <t>610905a730569ffea2fbdd0b_post</t>
+  </si>
+  <si>
+    <t>5a942689b5e2110001c67d93_post</t>
+  </si>
+  <si>
+    <t>645b8b2128bbb68d29778068_post</t>
+  </si>
+  <si>
+    <t>6516d3c10cc8996984d514f4_post</t>
+  </si>
+  <si>
+    <t>604b169fe4b7991ec08da3a6_post</t>
+  </si>
+  <si>
+    <t>6569ffc2439eb88f22d4e8bc_post</t>
+  </si>
+  <si>
+    <t>5fcf9f17f5a7c20ba38e9cc9_post</t>
+  </si>
+  <si>
+    <t>64ff13ded28d546281ffb6b5_post</t>
+  </si>
+  <si>
+    <t>6544fd5d0fb2eaaf83e2ddc9_post</t>
+  </si>
+  <si>
+    <t>63fd0b137e38c72ea19176aa_post</t>
+  </si>
+  <si>
+    <t>653a50254cd0995ce9fed45e_post</t>
+  </si>
+  <si>
+    <t>651ec655d2ef1a3ba8e64470_post</t>
+  </si>
+  <si>
+    <t>5a7fab56f49c9a0001f3549e_post</t>
+  </si>
+  <si>
+    <t>6554d1f1fda70c02063f51bd_post</t>
+  </si>
+  <si>
+    <t>6552628d0dfe6b458c390708_post</t>
+  </si>
+  <si>
+    <t>5b21646bdf28a7000166f4dc_post</t>
+  </si>
+  <si>
+    <t>6568ccd0468b7384e18af74b_post</t>
+  </si>
+  <si>
+    <t>6480b08b4e783b4c327cf4a8_post</t>
+  </si>
+  <si>
+    <t>6505e770a24e4561f219381e_post</t>
+  </si>
+  <si>
+    <t>653adf50c2b4d95715fa0383_post</t>
+  </si>
+  <si>
+    <t>63dfd4fb58435f30c7e5b04b_post</t>
+  </si>
+  <si>
+    <t>65526268c396c0c75dcefdf2_post</t>
+  </si>
+  <si>
+    <t>6560c1ff0b97f1d037b3c2dd_post</t>
+  </si>
+  <si>
+    <t>6521ac4e830108f7281e8644_post</t>
+  </si>
+  <si>
+    <t>606b94352e103bc54d43321b_post</t>
+  </si>
+  <si>
+    <t>64e74f0c7ba1863371602661_post</t>
+  </si>
+  <si>
+    <t>6532825749ca31d35c5cc482_post</t>
+  </si>
+  <si>
+    <t>63b87d2c9edd47ad702413a1_post</t>
+  </si>
+  <si>
+    <t>5f32d5f107d49607c3f6cf7a_post</t>
+  </si>
+  <si>
+    <t>6429682ff18d08f9eed7d9e7_post</t>
+  </si>
+  <si>
+    <t>643c243ff0ef4cb25c20a392_post</t>
+  </si>
+  <si>
+    <t>63cf5dcd6dbd0452632b58bb_post</t>
+  </si>
+  <si>
+    <t>617082143afa2b9f049f8b3b_post</t>
+  </si>
+  <si>
+    <t>647e2500ac34cb60b8e1348d_post</t>
+  </si>
+  <si>
+    <t>61574c44d4bd510e680f9d7a_post</t>
+  </si>
+  <si>
+    <t>6516ff4cda6f1e36fd05b1cc_post</t>
+  </si>
+  <si>
+    <t>5f4cde1cbfcaa81fc4dbf57d_post</t>
+  </si>
+  <si>
+    <t>6561ff666e87c03638f8fb11_post</t>
+  </si>
+  <si>
+    <t>64539733186ad1764e4c2b74_post</t>
+  </si>
+  <si>
+    <t>63cfbea470ab1bba9db30082_post</t>
+  </si>
+  <si>
+    <t>65034478b7a228b2bdfdca5c_post</t>
+  </si>
+  <si>
+    <t>6526b4db08c36959a00e69c4_post</t>
+  </si>
+  <si>
+    <t>6537d0d238ce085ea079c318_post</t>
+  </si>
+  <si>
+    <t>6570908f385d595d5df25c68_post</t>
+  </si>
+  <si>
+    <t>652156df21a8be7bb4c6f4e7_post</t>
+  </si>
+  <si>
+    <t>616b2d4ff5ffb8b86c08661b_post</t>
+  </si>
+  <si>
+    <t>65426792dac360c44e4908a7_post</t>
+  </si>
+  <si>
+    <t>65772f25af9bdd7c3ae47af5_post</t>
+  </si>
+  <si>
+    <t>652d2a7b11d97787933195c6_post</t>
+  </si>
+  <si>
+    <t>6516d85620c0017a8db27afc_post</t>
+  </si>
+  <si>
+    <t>654a76de0874380f590ca432_post</t>
+  </si>
+  <si>
+    <t>63eb514012c203a7a2146262_post</t>
+  </si>
+  <si>
+    <t>6046b9bf731b0611fe4d0159_post</t>
+  </si>
+  <si>
+    <t>5f5494aa76d6147f7ca89533_post</t>
+  </si>
+  <si>
+    <t>5e5fbff6de7bcc2fc7f396db_post</t>
+  </si>
+  <si>
+    <t>613b5e02f007dc6d30164fb3_post</t>
+  </si>
+  <si>
+    <t>64f1e17e5439f81a8eade6c2_post</t>
+  </si>
+  <si>
+    <t>5bceffb6a69cc50001d42ea5_post</t>
+  </si>
+  <si>
+    <t>60fd19bb0d1f1d54adccc4fa_post</t>
   </si>
 </sst>
 </file>
